--- a/gene_expression/MS_bioinformatics/MS_bioinformatics_alignmenttests/countreads.xlsx
+++ b/gene_expression/MS_bioinformatics/MS_bioinformatics_alignmenttests/countreads.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/MS_bioinformatics/Bioinformatics/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://miamiedu-my.sharepoint.com/personal/and128_miami_edu/Documents/GitHub/Ch2_temperaturevariability2023/gene_expression/MS_bioinformatics/MS_bioinformatics_alignmenttests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D01ED9D7-3934-5140-85D1-FF5833A65028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EABEDD13-37BA-274F-AA5B-F636B5A1C75C}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{D01ED9D7-3934-5140-85D1-FF5833A65028}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DC2306B-69BA-8C4A-A154-F544FD903BA2}"/>
   <bookViews>
-    <workbookView xWindow="8800" yWindow="500" windowWidth="20000" windowHeight="16240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-31220" yWindow="3800" windowWidth="20000" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="countreads" sheetId="8" r:id="rId1"/>
@@ -850,6 +850,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Michael Studivan" refreshedDate="45157.965259490738" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="96" xr:uid="{B2D46ABF-640A-1A47-AC5D-899553B7B779}">
   <cacheSource type="worksheet">
@@ -6000,10 +6004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22ECAA35-E0BE-7A40-9657-06C681B0E3F4}">
-  <dimension ref="A1:BG98"/>
+  <dimension ref="A1:BG100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10377,6 +10381,12 @@
       <c r="L98" s="25"/>
       <c r="M98" s="25"/>
     </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H100">
+        <f>AVERAGE(H50:H97)</f>
+        <v>773591.79166666663</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10386,7 +10396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B025AEF7-F8A9-9C48-8415-0B12E655EDA8}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -11087,8 +11097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -15412,7 +15422,10 @@
       <c r="A100" s="4"/>
       <c r="B100" s="4"/>
       <c r="D100" s="4"/>
-      <c r="E100" s="4"/>
+      <c r="E100" s="4">
+        <f>AVERAGE(E50:E97)</f>
+        <v>773591.79166666663</v>
+      </c>
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
